--- a/data/excel/مقرر مادة التربية الإسلامية للجذع مشترك.xlsx
+++ b/data/excel/مقرر مادة التربية الإسلامية للجذع مشترك.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30b93018d7010778/Documents/Classroom Management System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabil\Projects\Classroom-Management-System\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{36178027-B422-458B-83ED-282FA64D0D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8E3E89-887E-4E01-A315-99A60EEC9BF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A543120D-5D9A-4753-AEC9-99C61086F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{125F16DF-36B2-4FC6-B546-757FC2415BBA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t>تقويم تشخيصي</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>جذع مشترك</t>
+  </si>
+  <si>
+    <t>عدد الحصص</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9769D65-3D22-4228-B444-6F353DB6AE5A}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,7 +984,7 @@
     <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -994,8 +997,11 @@
       <c r="D1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1008,8 +1014,11 @@
       <c r="D2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="D3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1036,8 +1048,11 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1050,8 +1065,11 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1064,8 +1082,11 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1078,8 +1099,11 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1092,8 +1116,11 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1106,8 +1133,11 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1120,8 +1150,11 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1134,8 +1167,11 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1148,8 +1184,11 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1162,8 +1201,11 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1176,8 +1218,11 @@
       <c r="D14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1190,8 +1235,11 @@
       <c r="D15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1204,8 +1252,11 @@
       <c r="D16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1218,8 +1269,11 @@
       <c r="D17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1232,8 +1286,11 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1246,8 +1303,11 @@
       <c r="D19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1260,8 +1320,11 @@
       <c r="D20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1274,8 +1337,11 @@
       <c r="D21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1288,8 +1354,11 @@
       <c r="D22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1302,8 +1371,11 @@
       <c r="D23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1316,8 +1388,11 @@
       <c r="D24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1330,8 +1405,11 @@
       <c r="D25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1344,8 +1422,11 @@
       <c r="D26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1358,8 +1439,11 @@
       <c r="D27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1372,8 +1456,11 @@
       <c r="D28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1386,8 +1473,11 @@
       <c r="D29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1400,8 +1490,11 @@
       <c r="D30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1414,8 +1507,11 @@
       <c r="D31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1428,8 +1524,11 @@
       <c r="D32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1442,8 +1541,11 @@
       <c r="D33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1456,8 +1558,11 @@
       <c r="D34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1469,6 +1574,9 @@
       </c>
       <c r="D35" t="s">
         <v>35</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
